--- a/IAPs_normings.xlsx
+++ b/IAPs_normings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUSTeK\OneDrive\Documenten\GitHub\internship_sofie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{181BC3ED-E835-40B0-8949-2FE7F9E9F957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707DCE67-113D-4994-82D9-F32431D7F417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26B96B93-A966-4F45-A23F-ADD89F5E8524}"/>
+    <workbookView xWindow="10236" yWindow="240" windowWidth="12576" windowHeight="8964" xr2:uid="{26B96B93-A966-4F45-A23F-ADD89F5E8524}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="184">
   <si>
     <t>Stimulus</t>
   </si>
@@ -63,6 +63,15 @@
     <t>1.44</t>
   </si>
   <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
     <t>2.34</t>
   </si>
   <si>
@@ -138,6 +147,9 @@
     <t>0.75</t>
   </si>
   <si>
+    <t>1.26</t>
+  </si>
+  <si>
     <t>4.02</t>
   </si>
   <si>
@@ -156,6 +168,9 @@
     <t>2.75</t>
   </si>
   <si>
+    <t>2.06</t>
+  </si>
+  <si>
     <t>2.04</t>
   </si>
   <si>
@@ -304,6 +319,273 @@
   </si>
   <si>
     <t>2.27</t>
+  </si>
+  <si>
+    <t>EroticCouple</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>Mountains</t>
+  </si>
+  <si>
+    <t>7.83</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>6.51</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>7.85</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>Abduction</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>6.83</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>7.27</t>
+  </si>
+  <si>
+    <t>Checkerboard</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>FileCabinets</t>
+  </si>
+  <si>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>AbstractArt</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>RoachOnPizza</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>6.59</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>Cemetry</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
+    <t>Vomit</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
+    <t>DentalExam</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>5.53</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>CarAccident</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>5.84</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>1.94</t>
   </si>
 </sst>
 </file>
@@ -339,8 +621,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -657,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B981A102-802D-4B0D-90AE-77E8815D9277}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,490 +988,850 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1463</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1610</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1710</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1722</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1750</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>2057</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2070</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>2160</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>2165</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>2340</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>2360</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>2800</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>3261</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>4180</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>4290</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>4531</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <v>4550</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>4561</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
       <c r="B21">
         <v>4658</v>
       </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
       <c r="B22">
         <v>5030</v>
       </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
       <c r="B23">
         <v>5600</v>
       </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
       <c r="B24">
         <v>5800</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
       <c r="B25">
         <v>5982</v>
       </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
       <c r="B26">
         <v>6312</v>
       </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
       <c r="B27">
         <v>6313</v>
       </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
       <c r="B28">
         <v>7182</v>
       </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
       <c r="B29">
         <v>7211</v>
       </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
       <c r="B30">
         <v>7224</v>
       </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
       <c r="B31">
         <v>7238</v>
       </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
       <c r="B32">
         <v>7380</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
       <c r="B33">
         <v>7480</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
       <c r="B34">
         <v>7481</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
       <c r="B35">
         <v>9220</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
       <c r="B36">
         <v>9300</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
       <c r="B37">
         <v>9320</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
       <c r="B38">
         <v>9584</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
       <c r="B39">
         <v>9592</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
       <c r="B40">
         <v>9594</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
       <c r="B41">
         <v>9600</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
       <c r="B42">
         <v>9911</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
       <c r="B43">
         <v>9920</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>179</v>
+      </c>
       <c r="B44">
         <v>9921</v>
+      </c>
+      <c r="C44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
